--- a/InitializationData/Simulation_Parameters_main.xlsx
+++ b/InitializationData/Simulation_Parameters_main.xlsx
@@ -840,10 +840,8 @@
           <t>household_init_res_wage_mean</t>
         </is>
       </c>
-      <c r="B29" s="16" t="inlineStr">
-        <is>
-          <t>[293096.38125736]</t>
-        </is>
+      <c r="B29" s="16" t="n">
+        <v>771319.8719461027</v>
       </c>
       <c r="C29" s="20" t="n">
         <v>950</v>
@@ -889,10 +887,8 @@
           <t>household_init_unemployment_benefit</t>
         </is>
       </c>
-      <c r="B33" s="16" t="inlineStr">
-        <is>
-          <t>[500.]</t>
-        </is>
+      <c r="B33" s="16" t="n">
+        <v>500</v>
       </c>
       <c r="D33" s="24" t="n"/>
     </row>
@@ -902,10 +898,8 @@
           <t>household_init_minimum_wage</t>
         </is>
       </c>
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>[14856.83453008]</t>
-        </is>
+      <c r="B34" s="16" t="n">
+        <v>782.358987815954</v>
       </c>
       <c r="D34" s="24" t="n"/>
     </row>
@@ -1112,10 +1106,8 @@
           <t>firm_cons_init_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B54" s="16" t="inlineStr">
-        <is>
-          <t>[1.5630967]</t>
-        </is>
+      <c r="B54" s="16" t="n">
+        <v>1.623205823807918</v>
       </c>
       <c r="C54" s="20" t="n">
         <v>2</v>
@@ -1160,10 +1152,8 @@
           <t>firm_cons_init_target_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B58" s="16" t="inlineStr">
-        <is>
-          <t>[6.29153272]</t>
-        </is>
+      <c r="B58" s="16" t="n">
+        <v>5.035219421795645</v>
       </c>
       <c r="C58" s="20" t="n">
         <v>5</v>
@@ -1209,10 +1199,8 @@
           <t>firm_cons_init_production_current_ratio</t>
         </is>
       </c>
-      <c r="B62" s="16" t="inlineStr">
-        <is>
-          <t>[9.28720308]</t>
-        </is>
+      <c r="B62" s="16" t="n">
+        <v>0.2108454506034442</v>
       </c>
       <c r="D62" s="24" t="n"/>
     </row>
@@ -1222,10 +1210,8 @@
           <t>firm_cons_init_quantity_sold_ratio</t>
         </is>
       </c>
-      <c r="B63" s="16" t="inlineStr">
-        <is>
-          <t>[17.36942932]</t>
-        </is>
+      <c r="B63" s="16" t="n">
+        <v>0.1905277772173142</v>
       </c>
       <c r="C63" s="20" t="n">
         <v>0.25</v>
@@ -1452,10 +1438,8 @@
           <t>firm_cap_init_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B84" s="16" t="inlineStr">
-        <is>
-          <t>[1.50972447]</t>
-        </is>
+      <c r="B84" s="16" t="n">
+        <v>1.545008353178021</v>
       </c>
     </row>
     <row r="85" ht="19.5" customHeight="1" s="22">
@@ -1494,10 +1478,8 @@
           <t>firm_cap_init_target_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B88" s="16" t="inlineStr">
-        <is>
-          <t>[3.57966678]</t>
-        </is>
+      <c r="B88" s="16" t="n">
+        <v>0.7595322625938883</v>
       </c>
     </row>
     <row r="89" ht="19.5" customHeight="1" s="22">
@@ -1536,10 +1518,8 @@
           <t>firm_cap_init_production_current_ratio</t>
         </is>
       </c>
-      <c r="B92" s="16" t="inlineStr">
-        <is>
-          <t>[31.01719663]</t>
-        </is>
+      <c r="B92" s="16" t="n">
+        <v>0.1071382587722478</v>
       </c>
     </row>
     <row r="93" ht="19.5" customHeight="1" s="22">
@@ -1548,10 +1528,8 @@
           <t>firm_cap_init_quantity_sold_ratio</t>
         </is>
       </c>
-      <c r="B93" s="16" t="inlineStr">
-        <is>
-          <t>[12.32610202]</t>
-        </is>
+      <c r="B93" s="16" t="n">
+        <v>0.3505459137247037</v>
       </c>
       <c r="C93" s="20" t="n"/>
     </row>
@@ -1770,10 +1748,8 @@
           <t>household_targeted_savings_to_income_ratio</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>[38.84832979]</t>
-        </is>
+      <c r="B11" s="13" t="n">
+        <v>3.822894715540759</v>
       </c>
       <c r="C11" s="25" t="n"/>
     </row>
@@ -1811,10 +1787,8 @@
           <t>firm_cons_inv_depr_rate</t>
         </is>
       </c>
-      <c r="B15" s="14" t="inlineStr">
-        <is>
-          <t>[0.81108192]</t>
-        </is>
+      <c r="B15" s="14" t="n">
+        <v>0.003225051180691124</v>
       </c>
       <c r="C15" s="25" t="n"/>
     </row>
@@ -1824,10 +1798,8 @@
           <t>firm_cons_productivity</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
-        <is>
-          <t>[45367.83085853]</t>
-        </is>
+      <c r="B16" s="12" t="n">
+        <v>1073.165300432976</v>
       </c>
       <c r="C16" s="25" t="n"/>
     </row>
@@ -1837,10 +1809,8 @@
           <t>firm_cons_workers_per_machine</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
-        <is>
-          <t>[54.87671851]</t>
-        </is>
+      <c r="B17" s="12" t="n">
+        <v>1.643979827139016</v>
       </c>
       <c r="C17" s="25" t="n"/>
     </row>
@@ -1860,10 +1830,8 @@
           <t>firm_cons_inv_reaction_factor</t>
         </is>
       </c>
-      <c r="B19" s="12" t="inlineStr">
-        <is>
-          <t>[51.38870084]</t>
-        </is>
+      <c r="B19" s="12" t="n">
+        <v>1.263799526975838</v>
       </c>
       <c r="C19" s="25" t="n"/>
     </row>
@@ -1901,10 +1869,8 @@
           <t>firm_cap_inv_depr_rate</t>
         </is>
       </c>
-      <c r="B23" s="12" t="inlineStr">
-        <is>
-          <t>[0.97031208]</t>
-        </is>
+      <c r="B23" s="12" t="n">
+        <v>0.01471335103120419</v>
       </c>
       <c r="C23" s="25" t="n"/>
     </row>
@@ -1914,10 +1880,8 @@
           <t>firm_cap_productivity</t>
         </is>
       </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t>[815.06157862]</t>
-        </is>
+      <c r="B24" s="12" t="n">
+        <v>6.54564529524203</v>
       </c>
       <c r="C24" s="25" t="n"/>
     </row>
@@ -1927,10 +1891,8 @@
           <t>firm_cap_workers_per_machine</t>
         </is>
       </c>
-      <c r="B25" s="12" t="inlineStr">
-        <is>
-          <t>[80.33330528]</t>
-        </is>
+      <c r="B25" s="12" t="n">
+        <v>1.843770832774593</v>
       </c>
       <c r="C25" s="25" t="n"/>
     </row>
@@ -1960,10 +1922,8 @@
           <t>firm_cap_inv_reaction_factor</t>
         </is>
       </c>
-      <c r="B28" s="12" t="inlineStr">
-        <is>
-          <t>[25.94071431]</t>
-        </is>
+      <c r="B28" s="12" t="n">
+        <v>1.457693988455612</v>
       </c>
       <c r="C28" s="25" t="n"/>
     </row>
@@ -2001,10 +1961,8 @@
           <t>bank_inflation_reaction</t>
         </is>
       </c>
-      <c r="B32" s="12" t="inlineStr">
-        <is>
-          <t>[137.47049257]</t>
-        </is>
+      <c r="B32" s="12" t="n">
+        <v>2.261668598442793</v>
       </c>
       <c r="C32" s="25" t="n"/>
     </row>
@@ -2014,10 +1972,8 @@
           <t>bank_inflation_target</t>
         </is>
       </c>
-      <c r="B33" s="12" t="inlineStr">
-        <is>
-          <t>[98.04916663]</t>
-        </is>
+      <c r="B33" s="12" t="n">
+        <v>0.3775255522517593</v>
       </c>
       <c r="C33" s="25" t="n"/>
     </row>
@@ -2027,10 +1983,8 @@
           <t>bank_inflation_target_monthly</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
-        <is>
-          <t>[9.48764285]</t>
-        </is>
+      <c r="B34" s="12" t="n">
+        <v>0.810966138985987</v>
       </c>
       <c r="C34" s="25" t="n"/>
     </row>
@@ -2040,10 +1994,8 @@
           <t>bank_risk_premium</t>
         </is>
       </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>[8.56061087]</t>
-        </is>
+      <c r="B35" s="12" t="n">
+        <v>0.345213467156514</v>
       </c>
       <c r="C35" s="25" t="n"/>
     </row>
@@ -2093,10 +2045,8 @@
           <t>bank_max_interest_rate</t>
         </is>
       </c>
-      <c r="B40" s="12" t="inlineStr">
-        <is>
-          <t>[19.55130658]</t>
-        </is>
+      <c r="B40" s="12" t="n">
+        <v>1.878966062807385</v>
       </c>
       <c r="C40" s="25" t="n"/>
     </row>
@@ -2334,10 +2284,8 @@
           <t>firm_cons_rand_desired_inventory_factor_change</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>[9.19585658]</t>
-        </is>
+      <c r="B10" s="9" t="n">
+        <v>0.09246265873332581</v>
       </c>
       <c r="C10" s="21" t="n"/>
     </row>
@@ -2357,10 +2305,8 @@
           <t>firm_cons_rand_wage_change</t>
         </is>
       </c>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t>[5.89246834]</t>
-        </is>
+      <c r="B12" s="12" t="n">
+        <v>0.3184393147729256</v>
       </c>
       <c r="C12" s="21" t="n"/>
     </row>
@@ -2398,10 +2344,8 @@
           <t>firm_cap_rand_desired_inventory_factor_change</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>[2.44321685]</t>
-        </is>
+      <c r="B16" s="9" t="n">
+        <v>0.1074962660853343</v>
       </c>
       <c r="C16" s="21" t="n"/>
     </row>
@@ -2421,10 +2365,8 @@
           <t>firm_cap_rand_wage_change</t>
         </is>
       </c>
-      <c r="B18" s="12" t="inlineStr">
-        <is>
-          <t>[19.03380154]</t>
-        </is>
+      <c r="B18" s="12" t="n">
+        <v>0.3339386614174469</v>
       </c>
       <c r="C18" s="21" t="n"/>
     </row>

--- a/InitializationData/Simulation_Parameters_main.xlsx
+++ b/InitializationData/Simulation_Parameters_main.xlsx
@@ -842,7 +842,7 @@
       </c>
       <c r="B29" s="16" t="inlineStr">
         <is>
-          <t>[293096.38125736]</t>
+          <t>[143521.2428202]</t>
         </is>
       </c>
       <c r="C29" s="20" t="n">
@@ -904,7 +904,7 @@
       </c>
       <c r="B34" s="16" t="inlineStr">
         <is>
-          <t>[14856.83453008]</t>
+          <t>[22411.94753346]</t>
         </is>
       </c>
       <c r="D34" s="24" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B54" s="16" t="inlineStr">
         <is>
-          <t>[1.5630967]</t>
+          <t>[1.52030009]</t>
         </is>
       </c>
       <c r="C54" s="20" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B58" s="16" t="inlineStr">
         <is>
-          <t>[6.29153272]</t>
+          <t>[0.58101265]</t>
         </is>
       </c>
       <c r="C58" s="20" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B62" s="16" t="inlineStr">
         <is>
-          <t>[9.28720308]</t>
+          <t>[7.8551641]</t>
         </is>
       </c>
       <c r="D62" s="24" t="n"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B63" s="16" t="inlineStr">
         <is>
-          <t>[17.36942932]</t>
+          <t>[39.40543291]</t>
         </is>
       </c>
       <c r="C63" s="20" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B84" s="16" t="inlineStr">
         <is>
-          <t>[1.50972447]</t>
+          <t>[0.67946916]</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B88" s="16" t="inlineStr">
         <is>
-          <t>[3.57966678]</t>
+          <t>[1.93985364]</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B92" s="16" t="inlineStr">
         <is>
-          <t>[31.01719663]</t>
+          <t>[6.58832167]</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B93" s="16" t="inlineStr">
         <is>
-          <t>[12.32610202]</t>
+          <t>[2.19005923]</t>
         </is>
       </c>
       <c r="C93" s="20" t="n"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>[38.84832979]</t>
+          <t>[57.93323269]</t>
         </is>
       </c>
       <c r="C11" s="25" t="n"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B15" s="14" t="inlineStr">
         <is>
-          <t>[0.81108192]</t>
+          <t>[2.36015863]</t>
         </is>
       </c>
       <c r="C15" s="25" t="n"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B16" s="12" t="inlineStr">
         <is>
-          <t>[45367.83085853]</t>
+          <t>[68751.32255586]</t>
         </is>
       </c>
       <c r="C16" s="25" t="n"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>[54.87671851]</t>
+          <t>[87.94945795]</t>
         </is>
       </c>
       <c r="C17" s="25" t="n"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>[51.38870084]</t>
+          <t>[12.40694389]</t>
         </is>
       </c>
       <c r="C19" s="25" t="n"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>[0.97031208]</t>
+          <t>[0.93401699]</t>
         </is>
       </c>
       <c r="C23" s="25" t="n"/>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B24" s="12" t="inlineStr">
         <is>
-          <t>[815.06157862]</t>
+          <t>[926.97242286]</t>
         </is>
       </c>
       <c r="C24" s="25" t="n"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>[80.33330528]</t>
+          <t>[51.8558966]</t>
         </is>
       </c>
       <c r="C25" s="25" t="n"/>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>[25.94071431]</t>
+          <t>[46.95401145]</t>
         </is>
       </c>
       <c r="C28" s="25" t="n"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>[137.47049257]</t>
+          <t>[43.45990705]</t>
         </is>
       </c>
       <c r="C32" s="25" t="n"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>[98.04916663]</t>
+          <t>[83.55987069]</t>
         </is>
       </c>
       <c r="C33" s="25" t="n"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>[9.48764285]</t>
+          <t>[36.18177125]</t>
         </is>
       </c>
       <c r="C34" s="25" t="n"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>[8.56061087]</t>
+          <t>[10.53029734]</t>
         </is>
       </c>
       <c r="C35" s="25" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>[19.55130658]</t>
+          <t>[48.71873838]</t>
         </is>
       </c>
       <c r="C40" s="25" t="n"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>[9.19585658]</t>
+          <t>[3.91215461]</t>
         </is>
       </c>
       <c r="C10" s="21" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B12" s="12" t="inlineStr">
         <is>
-          <t>[5.89246834]</t>
+          <t>[6.04546836]</t>
         </is>
       </c>
       <c r="C12" s="21" t="n"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>[2.44321685]</t>
+          <t>[0.11589894]</t>
         </is>
       </c>
       <c r="C16" s="21" t="n"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B18" s="12" t="inlineStr">
         <is>
-          <t>[19.03380154]</t>
+          <t>[11.50892903]</t>
         </is>
       </c>
       <c r="C18" s="21" t="n"/>

--- a/InitializationData/Simulation_Parameters_main.xlsx
+++ b/InitializationData/Simulation_Parameters_main.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10240" yWindow="740" windowWidth="20000" windowHeight="18900" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Initialization_Parameters" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,14 +43,8 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -59,37 +53,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -136,7 +100,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -145,35 +109,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,67 +490,69 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView zoomScale="223" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="41.5" bestFit="1" customWidth="1" style="22" min="1" max="1"/>
-    <col width="14.1640625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="41.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19.6640625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="22">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Agent Initialization Parameters</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" s="22">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
       </c>
-      <c r="B2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" s="22">
-      <c r="A3" s="18" t="inlineStr">
+      <c r="B2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" t="inlineStr">
         <is>
           <t>bank_init_interest_rate</t>
         </is>
       </c>
-      <c r="B3" s="16" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" s="22">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Households</t>
         </is>
       </c>
-      <c r="B4" s="12" t="n"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" s="22">
-      <c r="A5" s="18" t="inlineStr">
+      <c r="B4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>household_init_c_f_mean</t>
         </is>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" s="22">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>household_init_c_f_std</t>
@@ -609,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" s="22">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>household_init_c_f_min</t>
@@ -619,7 +572,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" s="22">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>household_init_c_f_max</t>
@@ -629,17 +582,17 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" s="22">
-      <c r="A9" s="18" t="inlineStr">
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>household_init_c_excess_mean</t>
         </is>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" s="22">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>household_init_c_excess_std</t>
@@ -649,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" s="22">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>household_init_c_excess_min</t>
@@ -659,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" s="22">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>household_init_c_excess_max</t>
@@ -669,17 +622,17 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" s="22">
-      <c r="A13" s="18" t="inlineStr">
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>household_init_s_optimist_mean</t>
         </is>
       </c>
-      <c r="B13" s="16" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" s="22">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>household_init_s_optimist_std</t>
@@ -689,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" s="22">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>household_init_s_optimist_min</t>
@@ -699,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" s="22">
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>household_init_s_optimist_max</t>
@@ -709,17 +662,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" s="22">
-      <c r="A17" s="18" t="inlineStr">
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>household_init_s_pessimist_mean</t>
         </is>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" s="22">
+    <row r="18" ht="19.5" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>household_init_s_pessimist_std</t>
@@ -729,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" s="22">
+    <row r="19" ht="19.5" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>household_init_s_pessimist_min</t>
@@ -739,7 +692,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" s="22">
+    <row r="20" ht="19.5" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
           <t>household_init_s_pessimist_max</t>
@@ -749,8 +702,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" s="22">
-      <c r="A21" s="18" t="inlineStr">
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>household_init_wealth_mean</t>
         </is>
@@ -758,12 +711,8 @@
       <c r="B21" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="C21" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" s="24" t="n"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1" s="22">
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
           <t>household_init_wealth_std</t>
@@ -773,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" s="22">
+    <row r="23" ht="19.5" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>household_init_wealth_min</t>
@@ -783,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" s="22">
+    <row r="24" ht="19.5" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
           <t>household_init_wealth_max</t>
@@ -793,18 +742,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1" s="22">
-      <c r="A25" s="18" t="inlineStr">
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>household_init_unemp_tolerance_mean</t>
         </is>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="24" t="n"/>
-    </row>
-    <row r="26" ht="19.5" customHeight="1" s="22">
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
           <t>household_init_unemp_tolerance_std</t>
@@ -814,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1" s="22">
+    <row r="27" ht="19.5" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>household_init_unemp_tolerance_min</t>
@@ -824,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1" s="22">
+    <row r="28" ht="19.5" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>household_init_unemp_tolerance_max</t>
@@ -834,23 +782,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1" s="22">
-      <c r="A29" s="18" t="inlineStr">
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>household_init_res_wage_mean</t>
         </is>
       </c>
-      <c r="B29" s="16" t="inlineStr">
-        <is>
-          <t>[143521.2428202]</t>
-        </is>
-      </c>
-      <c r="C29" s="20" t="n">
-        <v>950</v>
-      </c>
-      <c r="D29" s="24" t="n"/>
-    </row>
-    <row r="30" ht="19.5" customHeight="1" s="22">
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>449925,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="19.5" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
           <t>household_init_res_wage_std</t>
@@ -860,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1" s="22">
+    <row r="31" ht="19.5" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
           <t>household_init_res_wage_min</t>
@@ -869,11 +813,8 @@
       <c r="B31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1" s="22">
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
           <t>household_init_res_wage_max</t>
@@ -883,55 +824,49 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1" s="22">
-      <c r="A33" s="18" t="inlineStr">
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>household_init_unemployment_benefit</t>
         </is>
       </c>
-      <c r="B33" s="16" t="inlineStr">
-        <is>
-          <t>[500.]</t>
-        </is>
-      </c>
-      <c r="D33" s="24" t="n"/>
-    </row>
-    <row r="34" ht="19.5" customHeight="1" s="22">
-      <c r="A34" s="18" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>15789,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>household_init_minimum_wage</t>
         </is>
       </c>
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>[22411.94753346]</t>
-        </is>
-      </c>
-      <c r="D34" s="24" t="n"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="1" s="22">
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>18881,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>Consumer Firms</t>
         </is>
       </c>
-      <c r="B35" s="12" t="n"/>
-    </row>
-    <row r="36" ht="19.5" customHeight="1" s="22">
-      <c r="A36" s="18" t="inlineStr">
+      <c r="B35" s="3" t="n"/>
+    </row>
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="15" t="inlineStr">
         <is>
           <t>firm_cons_init_cash_mean</t>
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C36" s="20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="24" t="n"/>
-    </row>
-    <row r="37" ht="19.5" customHeight="1" s="22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
           <t>firm_cons_init_cash_std</t>
@@ -941,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="19.5" customHeight="1" s="22">
+    <row r="38" ht="19.5" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
           <t>firm_cons_init_cash_min</t>
@@ -951,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="19.5" customHeight="1" s="22">
+    <row r="39" ht="19.5" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
           <t>firm_cons_init_cash_max</t>
@@ -961,41 +896,37 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1" s="22">
-      <c r="A40" s="18" t="inlineStr">
+    <row r="40" ht="19.5" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>firm_cons_init_dividend_ratio_optimist</t>
         </is>
       </c>
-      <c r="B40" s="16" t="n">
+      <c r="B40" s="2" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" ht="19.5" customHeight="1" s="22">
-      <c r="A41" s="18" t="inlineStr">
+    <row r="41" ht="19.5" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>firm_cons_init_dividend_ratio_pessimist</t>
         </is>
       </c>
-      <c r="B41" s="16" t="n">
+      <c r="B41" s="2" t="n">
         <v>0.005</v>
       </c>
     </row>
-    <row r="42" ht="19.5" customHeight="1" s="22">
-      <c r="A42" s="18" t="inlineStr">
+    <row r="42" ht="19.5" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>firm_cons_init_wage_offer_mean</t>
         </is>
       </c>
-      <c r="B42" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="C42" s="20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D42" s="24" t="n"/>
-    </row>
-    <row r="43" ht="19.5" customHeight="1" s="22">
+      <c r="B42" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" ht="19.5" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
           <t>firm_cons_init_wage_offer_std</t>
@@ -1005,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="19.5" customHeight="1" s="22">
+    <row r="44" ht="19.5" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
           <t>firm_cons_init_wage_offer_min</t>
@@ -1015,7 +946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" ht="19.5" customHeight="1" s="22">
+    <row r="45" ht="19.5" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
           <t>firm_cons_init_wage_offer_max</t>
@@ -1025,18 +956,18 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1" s="22">
-      <c r="A46" s="18" t="inlineStr">
+    <row r="46" ht="19.5" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>firm_cons_init_worker_demand_mean</t>
         </is>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="2">
         <f>INT(Main_Loop_Parameters!B4/Main_Loop_Parameters!B7)</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1" s="22">
+    <row r="47" ht="19.5" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
           <t>firm_cons_init_worker_demand_std</t>
@@ -1046,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="19.5" customHeight="1" s="22">
+    <row r="48" ht="19.5" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
           <t>firm_cons_init_worker_demand_min</t>
@@ -1056,37 +987,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="19.5" customHeight="1" s="22">
+    <row r="49" ht="19.5" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
           <t>firm_cons_init_worker_demand_max</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" ht="19.5" customHeight="1" s="22">
-      <c r="A50" s="18" t="inlineStr">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" ht="19.5" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>firm_cons_init_good_price_mean</t>
         </is>
       </c>
-      <c r="B50" s="16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" ht="19.5" customHeight="1" s="22">
+      <c r="B50" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="19.5" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
           <t>firm_cons_init_good_price_std</t>
         </is>
       </c>
-      <c r="B51" s="11" t="n">
+      <c r="B51" s="14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="19.5" customHeight="1" s="22">
+    <row r="52" ht="19.5" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
           <t>firm_cons_init_good_price_min</t>
@@ -1096,35 +1027,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="19.5" customHeight="1" s="22">
+    <row r="53" ht="19.5" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>firm_cons_init_good_price_max</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" ht="19.5" customHeight="1" s="22">
-      <c r="A54" s="18" t="inlineStr">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" ht="19.5" customHeight="1">
+      <c r="A54" t="inlineStr">
         <is>
           <t>firm_cons_init_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B54" s="16" t="inlineStr">
-        <is>
-          <t>[1.52030009]</t>
-        </is>
-      </c>
-      <c r="C54" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="19.5" customHeight="1" s="22">
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="19.5" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
           <t>firm_cons_init_inv_factor_std</t>
@@ -1134,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="19.5" customHeight="1" s="22">
+    <row r="56" ht="19.5" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
           <t>firm_cons_init_inv_factor_min</t>
@@ -1144,7 +1069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" ht="19.5" customHeight="1" s="22">
+    <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
           <t>firm_cons_init_inv_factor_max</t>
@@ -1154,26 +1079,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" ht="19.5" customHeight="1" s="22">
-      <c r="A58" s="18" t="inlineStr">
+    <row r="58" ht="19.5" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>firm_cons_init_target_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B58" s="16" t="inlineStr">
-        <is>
-          <t>[0.58101265]</t>
-        </is>
-      </c>
-      <c r="C58" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" s="24" t="n">
+      <c r="B58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="21" t="n"/>
-    </row>
-    <row r="59" ht="19.5" customHeight="1" s="22">
+    </row>
+    <row r="59" ht="19.5" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
           <t>firm_cons_init_target_inv_factor_std</t>
@@ -1183,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="19.5" customHeight="1" s="22">
+    <row r="60" ht="19.5" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
           <t>firm_cons_init_target_inv_factor_min</t>
@@ -1193,7 +1109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" ht="19.5" customHeight="1" s="22">
+    <row r="61" ht="19.5" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
           <t>firm_cons_init_target_inv_factor_max</t>
@@ -1203,57 +1119,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="19.5" customHeight="1" s="22">
-      <c r="A62" s="18" t="inlineStr">
+    <row r="62" ht="19.5" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>firm_cons_init_production_current_ratio</t>
         </is>
       </c>
-      <c r="B62" s="16" t="inlineStr">
-        <is>
-          <t>[7.8551641]</t>
-        </is>
-      </c>
-      <c r="D62" s="24" t="n"/>
-    </row>
-    <row r="63" ht="19.5" customHeight="1" s="22">
-      <c r="A63" s="18" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="19.5" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>firm_cons_init_quantity_sold_ratio</t>
         </is>
       </c>
-      <c r="B63" s="16" t="inlineStr">
-        <is>
-          <t>[39.40543291]</t>
-        </is>
-      </c>
-      <c r="C63" s="20" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D63" s="24" t="n">
+      <c r="B63" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="19.5" customHeight="1" s="22">
-      <c r="A64" s="18" t="inlineStr">
+    <row r="64" ht="19.5" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>firm_cons_init_emissions_per_unit</t>
         </is>
       </c>
-      <c r="B64" s="16" t="n">
+      <c r="B64" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="65" ht="19.5" customHeight="1" s="22">
+    <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="7" t="inlineStr">
         <is>
           <t>Capital Firms</t>
         </is>
       </c>
-      <c r="B65" s="12" t="n"/>
-    </row>
-    <row r="66" ht="19.5" customHeight="1" s="22">
-      <c r="A66" s="18" t="inlineStr">
+      <c r="B65" s="3" t="n"/>
+    </row>
+    <row r="66" ht="19.5" customHeight="1">
+      <c r="A66" s="15" t="inlineStr">
         <is>
           <t>firm_cap_init_cash_mean</t>
         </is>
@@ -1261,12 +1168,8 @@
       <c r="B66" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="C66" s="20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D66" s="24" t="n"/>
-    </row>
-    <row r="67" ht="19.5" customHeight="1" s="22">
+    </row>
+    <row r="67" ht="19.5" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
           <t>firm_cap_init_cash_std</t>
@@ -1276,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="19.5" customHeight="1" s="22">
+    <row r="68" ht="19.5" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
           <t>firm_cap_init_cash_min</t>
@@ -1286,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="19.5" customHeight="1" s="22">
+    <row r="69" ht="19.5" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
           <t>firm_cap_init_cash_max</t>
@@ -1296,40 +1199,39 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="70" ht="19.5" customHeight="1" s="22">
-      <c r="A70" s="18" t="inlineStr">
+    <row r="70" ht="19.5" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>firm_cap_init_dividend_ratio_optimist</t>
         </is>
       </c>
-      <c r="B70" s="16" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="71" ht="19.5" customHeight="1" s="22">
-      <c r="A71" s="18" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="19.5" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>firm_cap_init_dividend_ratio_pessimist</t>
         </is>
       </c>
-      <c r="B71" s="16" t="n">
+      <c r="B71" s="2" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="72" ht="19.5" customHeight="1" s="22">
-      <c r="A72" s="18" t="inlineStr">
+    <row r="72" ht="19.5" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>firm_cap_init_wage_offer_mean</t>
         </is>
       </c>
-      <c r="B72" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="C72" s="20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" ht="19.5" customHeight="1" s="22">
+      <c r="B72" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" ht="19.5" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
           <t>firm_cap_init_wage_offer_std</t>
@@ -1339,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="19.5" customHeight="1" s="22">
+    <row r="74" ht="19.5" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
           <t>firm_cap_init_wage_offer_min</t>
@@ -1349,7 +1251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" ht="19.5" customHeight="1" s="22">
+    <row r="75" ht="19.5" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
           <t>firm_cap_init_wage_offer_max</t>
@@ -1359,18 +1261,18 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="76" ht="19.5" customHeight="1" s="22">
-      <c r="A76" s="18" t="inlineStr">
+    <row r="76" ht="19.5" customHeight="1">
+      <c r="A76" t="inlineStr">
         <is>
           <t>firm_cap_init_worker_demand_mean</t>
         </is>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="2">
         <f>INT(Main_Loop_Parameters!B4/Main_Loop_Parameters!B7)</f>
         <v/>
       </c>
     </row>
-    <row r="77" ht="19.5" customHeight="1" s="22">
+    <row r="77" ht="19.5" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
           <t>firm_cap_init_worker_demand_std</t>
@@ -1380,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="19.5" customHeight="1" s="22">
+    <row r="78" ht="19.5" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
           <t>firm_cap_init_worker_demand_min</t>
@@ -1390,33 +1292,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="19.5" customHeight="1" s="22">
+    <row r="79" ht="19.5" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
           <t>firm_cap_init_worker_demand_max</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" ht="19.5" customHeight="1" s="22">
-      <c r="A80" s="18" t="inlineStr">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" ht="19.5" customHeight="1">
+      <c r="A80" t="inlineStr">
         <is>
           <t>firm_cap_init_good_price_mean</t>
         </is>
       </c>
-      <c r="B80" s="16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C80" s="20" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="B80" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="81" ht="19.5" customHeight="1" s="22">
+    <row r="81" ht="19.5" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
           <t>firm_cap_init_good_price_std</t>
@@ -1426,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="19.5" customHeight="1" s="22">
+    <row r="82" ht="19.5" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
           <t>firm_cap_init_good_price_min</t>
@@ -1436,7 +1332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="19.5" customHeight="1" s="22">
+    <row r="83" ht="19.5" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
           <t>firm_cap_init_good_price_max</t>
@@ -1446,19 +1342,19 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="84" ht="19.5" customHeight="1" s="22">
-      <c r="A84" s="18" t="inlineStr">
+    <row r="84" ht="19.5" customHeight="1">
+      <c r="A84" t="inlineStr">
         <is>
           <t>firm_cap_init_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B84" s="16" t="inlineStr">
-        <is>
-          <t>[0.67946916]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="19.5" customHeight="1" s="22">
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>31,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="19.5" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
           <t>firm_cap_init_inv_factor_std</t>
@@ -1468,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="19.5" customHeight="1" s="22">
+    <row r="86" ht="19.5" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
           <t>firm_cap_init_inv_factor_min</t>
@@ -1478,29 +1374,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" ht="19.5" customHeight="1" s="22">
+    <row r="87" ht="19.5" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
           <t>firm_cap_init_inv_factor_max</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" ht="19.5" customHeight="1" s="22">
-      <c r="A88" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="19.5" customHeight="1">
+      <c r="A88" t="inlineStr">
         <is>
           <t>firm_cap_init_target_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B88" s="16" t="inlineStr">
-        <is>
-          <t>[1.93985364]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" ht="19.5" customHeight="1" s="22">
+      <c r="B88" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="89" ht="19.5" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
           <t>firm_cap_init_target_inv_factor_std</t>
@@ -1510,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="19.5" customHeight="1" s="22">
+    <row r="90" ht="19.5" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
           <t>firm_cap_init_target_inv_factor_min</t>
@@ -1520,7 +1414,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" ht="19.5" customHeight="1" s="22">
+    <row r="91" ht="19.5" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
           <t>firm_cap_init_target_inv_factor_max</t>
@@ -1530,50 +1424,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" ht="19.5" customHeight="1" s="22">
-      <c r="A92" s="18" t="inlineStr">
+    <row r="92" ht="19.5" customHeight="1">
+      <c r="A92" t="inlineStr">
         <is>
           <t>firm_cap_init_production_current_ratio</t>
         </is>
       </c>
-      <c r="B92" s="16" t="inlineStr">
-        <is>
-          <t>[6.58832167]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93" ht="19.5" customHeight="1" s="22">
-      <c r="A93" s="18" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="19.5" customHeight="1">
+      <c r="A93" t="inlineStr">
         <is>
           <t>firm_cap_init_quantity_sold_ratio</t>
         </is>
       </c>
-      <c r="B93" s="16" t="inlineStr">
-        <is>
-          <t>[2.19005923]</t>
-        </is>
-      </c>
-      <c r="C93" s="20" t="n"/>
-    </row>
-    <row r="94" ht="19.5" customHeight="1" s="22">
-      <c r="A94" s="18" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="19.5" customHeight="1">
+      <c r="A94" t="inlineStr">
         <is>
           <t>firm_cap_init_emissions_per_unit</t>
         </is>
       </c>
-      <c r="B94" s="16" t="n">
+      <c r="B94" s="2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="95" ht="19.5" customHeight="1" s="22">
+    <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="7" t="inlineStr">
         <is>
           <t>CO2 Emission Sensitivities</t>
         </is>
       </c>
-      <c r="B95" s="12" t="n"/>
-    </row>
-    <row r="96" ht="19.5" customHeight="1" s="22">
+      <c r="B95" s="3" t="n"/>
+    </row>
+    <row r="96" ht="19.5" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
           <t>emission_sensitivity_min</t>
@@ -1583,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="19.5" customHeight="1" s="22">
+    <row r="97" ht="19.5" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
           <t>emission_sensitivity_max</t>
@@ -1593,7 +1486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" ht="19.5" customHeight="1" s="22">
+    <row r="98" ht="19.5" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
           <t>emisssion_sensitivity_std</t>
@@ -1603,47 +1496,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="19.5" customHeight="1" s="22">
-      <c r="A99" s="18" t="inlineStr">
+    <row r="99" ht="19.5" customHeight="1">
+      <c r="A99" t="inlineStr">
         <is>
           <t>emission_sensitivity_threshold</t>
         </is>
       </c>
-      <c r="B99" s="16" t="n">
+      <c r="B99" s="2" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="100" ht="19.5" customHeight="1" s="22">
+    <row r="100" ht="19.5" customHeight="1">
       <c r="A100" s="7" t="inlineStr">
         <is>
           <t>Emission Allowances</t>
         </is>
       </c>
-      <c r="B100" s="12" t="n"/>
-    </row>
-    <row r="101" ht="19.5" customHeight="1" s="22">
-      <c r="A101" s="18" t="inlineStr">
+      <c r="B100" s="3" t="n"/>
+    </row>
+    <row r="101" ht="19.5" customHeight="1">
+      <c r="A101" t="inlineStr">
         <is>
           <t>emission_init_total_allowance</t>
         </is>
       </c>
-      <c r="B101" s="19" t="n">
+      <c r="B101" s="3" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="102" ht="19.5" customHeight="1" s="22">
-      <c r="A102" s="18" t="inlineStr">
+    <row r="102" ht="19.5" customHeight="1">
+      <c r="A102" t="inlineStr">
         <is>
           <t>emission_init_unit_price</t>
         </is>
       </c>
-      <c r="B102" s="19" t="n">
+      <c r="B102" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1653,566 +1545,521 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="39.5" bestFit="1" customWidth="1" style="22" min="1" max="1"/>
+    <col width="39.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="14.1640625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="22">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Simulation Parameters</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" s="22">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Simulation Size and Length</t>
         </is>
       </c>
-      <c r="B2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" s="22">
+      <c r="B2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>n_loops</t>
         </is>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" s="22">
+      <c r="B3" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>n_households</t>
         </is>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" s="22">
+      <c r="B4" s="3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>n_consumer_firms</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" s="22">
+      <c r="B5" s="3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>n_capital_firms</t>
         </is>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" s="22">
+      <c r="B6" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>n_firms</t>
         </is>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="3">
         <f>B5+B6</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" s="22">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>n_consumer_sectors</t>
         </is>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" s="22">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Dynamic Household Parameters</t>
         </is>
       </c>
-      <c r="B9" s="12" t="n"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" s="22">
+      <c r="B9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>household_n_res_wage_decrease</t>
         </is>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" s="22">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>household_targeted_savings_to_income_ratio</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>[57.93323269]</t>
-        </is>
-      </c>
-      <c r="C11" s="25" t="n"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" s="22">
+      <c r="B11" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>standard_employment_contract_length</t>
         </is>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" s="22">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
           <t>firm_tax_rate</t>
         </is>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" s="22">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Consumer Firm Dynamic Parameters</t>
         </is>
       </c>
-      <c r="B14" s="12" t="n"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" s="22">
+      <c r="B14" s="3" t="n"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>firm_cons_inv_depr_rate</t>
         </is>
       </c>
-      <c r="B15" s="14" t="inlineStr">
-        <is>
-          <t>[2.36015863]</t>
-        </is>
-      </c>
-      <c r="C15" s="25" t="n"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1" s="22">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>37,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>firm_cons_productivity</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
-        <is>
-          <t>[68751.32255586]</t>
-        </is>
-      </c>
-      <c r="C16" s="25" t="n"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1" s="22">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>23,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>firm_cons_workers_per_machine</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
-        <is>
-          <t>[87.94945795]</t>
-        </is>
-      </c>
-      <c r="C17" s="25" t="n"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1" s="22">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>16,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>firm_cons_good_unit_cost</t>
         </is>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" s="22">
+    <row r="19" ht="19.5" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>firm_cons_inv_reaction_factor</t>
         </is>
       </c>
-      <c r="B19" s="12" t="inlineStr">
-        <is>
-          <t>[12.40694389]</t>
-        </is>
-      </c>
-      <c r="C19" s="25" t="n"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1" s="22">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>firm_cons_fixed_wage_change</t>
-        </is>
-      </c>
-      <c r="B20" s="15" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" ht="19.5" customHeight="1" s="22">
+      <c r="B19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Capital Firm Dynamic Parameters</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>40314,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>firm_cons_fixed_price_change</t>
-        </is>
-      </c>
-      <c r="B21" s="15" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" ht="19.5" customHeight="1" s="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>Capital Firm Dynamic Parameters</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="n"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1" s="22">
+          <t>firm_cap_inv_depr_rate</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>43,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>firm_cap_productivity</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>93,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>firm_cap_inv_depr_rate</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="inlineStr">
-        <is>
-          <t>[0.93401699]</t>
-        </is>
-      </c>
-      <c r="C23" s="25" t="n"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1" s="22">
+          <t>firm_cap_workers_per_machine</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>firm_cap_productivity</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="inlineStr">
-        <is>
-          <t>[926.97242286]</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="n"/>
-    </row>
-    <row r="25" ht="19.5" customHeight="1" s="22">
+          <t>firm_cap_good_unit_cost</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>firm_cap_workers_per_machine</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="inlineStr">
-        <is>
-          <t>[51.8558966]</t>
-        </is>
-      </c>
-      <c r="C25" s="25" t="n"/>
-    </row>
-    <row r="26" ht="19.5" customHeight="1" s="22">
+          <t>firm_cap_machine_lifespan</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>838,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>firm_cap_good_unit_cost</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="19.5" customHeight="1" s="22">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>firm_cap_machine_lifespan</t>
-        </is>
-      </c>
-      <c r="B27" s="14" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" customHeight="1" s="22">
+          <t>firm_cap_inv_reaction_factor</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>Dynamic Bank Parameters</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>firm_cap_inv_reaction_factor</t>
-        </is>
-      </c>
-      <c r="B28" s="12" t="inlineStr">
-        <is>
-          <t>[46.95401145]</t>
-        </is>
-      </c>
-      <c r="C28" s="25" t="n"/>
-    </row>
-    <row r="29" ht="19.5" customHeight="1" s="22">
+          <t>bank_inflation_reaction</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>73,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>firm_cap_fixed_wage_change</t>
-        </is>
-      </c>
-      <c r="B29" s="15" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1" s="22">
+          <t>bank_inflation_target</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>72,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="19.5" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>firm_cap_fixed_price_change</t>
-        </is>
-      </c>
-      <c r="B30" s="15" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1" s="22">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>Dynamic Bank Parameters</t>
-        </is>
-      </c>
-      <c r="B31" s="12" t="n"/>
-    </row>
-    <row r="32" ht="19.5" customHeight="1" s="22">
+          <t>bank_inflation_target_monthly</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bank_risk_premium</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bank_inflation_reaction</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="inlineStr">
-        <is>
-          <t>[43.45990705]</t>
-        </is>
-      </c>
-      <c r="C32" s="25" t="n"/>
-    </row>
-    <row r="33" ht="19.5" customHeight="1" s="22">
+          <t>bank_short_term_loan_length</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>190,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="19.5" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bank_inflation_target</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="inlineStr">
-        <is>
-          <t>[83.55987069]</t>
-        </is>
-      </c>
-      <c r="C33" s="25" t="n"/>
-    </row>
-    <row r="34" ht="19.5" customHeight="1" s="22">
+          <t>bank_long_term_loan_length</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>51,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="19.5" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bank_inflation_target_monthly</t>
-        </is>
-      </c>
-      <c r="B34" s="12" t="inlineStr">
-        <is>
-          <t>[36.18177125]</t>
-        </is>
-      </c>
-      <c r="C34" s="25" t="n"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="1" s="22">
+          <t>bank_leverage_ratio_lower_threshold</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bank_risk_premium</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>[10.53029734]</t>
-        </is>
-      </c>
-      <c r="C35" s="25" t="n"/>
-    </row>
-    <row r="36" ht="19.5" customHeight="1" s="22">
+          <t>bank_leverage_ratio_upper_threshold</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>31,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="19.5" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bank_short_term_loan_length</t>
-        </is>
-      </c>
-      <c r="B36" s="12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1" s="22">
+          <t>bank_max_interest_rate</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bank_long_term_loan_length</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" ht="19.5" customHeight="1" s="22">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>bank_leverage_ratio_lower_threshold</t>
-        </is>
-      </c>
-      <c r="B38" s="12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" ht="19.5" customHeight="1" s="22">
+          <t>bank_max_interest_rate_change</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" ht="19.5" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>Bank Emission Penalty Parameters</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n"/>
+    </row>
+    <row r="39" ht="19.5" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bank_leverage_ratio_upper_threshold</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="19.5" customHeight="1" s="22">
+          <t>bank_emission_penalty_max</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" ht="19.5" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bank_max_interest_rate</t>
-        </is>
-      </c>
-      <c r="B40" s="12" t="inlineStr">
-        <is>
-          <t>[48.71873838]</t>
-        </is>
-      </c>
-      <c r="C40" s="25" t="n"/>
-    </row>
-    <row r="41" ht="19.5" customHeight="1" s="22">
+          <t>bank_total_emission_penalty</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="19.5" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bank_max_interest_rate_change</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" ht="19.5" customHeight="1" s="22">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>Bank Emission Penalty Parameters</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="n"/>
-    </row>
-    <row r="43" ht="19.5" customHeight="1" s="22">
+          <t>bank_unit_emission_penalty</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="19.5" customHeight="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>bank_unit_emission_lower_thr</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="19.5" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bank_emission_penalty_max</t>
-        </is>
-      </c>
-      <c r="B43" s="12" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="44" ht="19.5" customHeight="1" s="22">
+          <t>bank_unit_emission_upper_thr</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="19.5" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bank_total_emission_penalty</t>
-        </is>
-      </c>
-      <c r="B44" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" ht="19.5" customHeight="1" s="22">
+          <t>bank_total_emission_lower_thr</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" ht="19.5" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bank_unit_emission_penalty</t>
-        </is>
-      </c>
-      <c r="B45" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="19.5" customHeight="1" s="22">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>bank_unit_emission_lower_thr</t>
-        </is>
-      </c>
-      <c r="B46" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="19.5" customHeight="1" s="22">
+          <t>bank_total_emission_upper_thr</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" ht="19.5" customHeight="1">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>Emission Allowance Parameters</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="19.5" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bank_unit_emission_upper_thr</t>
-        </is>
-      </c>
-      <c r="B47" s="12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" ht="19.5" customHeight="1" s="22">
+          <t>emission_total_allowance_change</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="48" ht="19.5" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bank_total_emission_lower_thr</t>
-        </is>
-      </c>
-      <c r="B48" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" ht="19.5" customHeight="1" s="22">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>bank_total_emission_upper_thr</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="50" ht="19.5" customHeight="1" s="22">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>Emission Allowance Parameters</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="n"/>
-    </row>
-    <row r="51" ht="19.5" customHeight="1" s="22">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>emission_total_allowance_change</t>
-        </is>
-      </c>
-      <c r="B51" s="12" t="n">
-        <v>-0.001</v>
-      </c>
-    </row>
-    <row r="52" ht="19.5" customHeight="1" s="22">
-      <c r="A52" t="inlineStr">
-        <is>
           <t>emission_unit_price_change</t>
         </is>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -2227,19 +2074,19 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="45" bestFit="1" customWidth="1" style="22" min="1" max="1"/>
-    <col width="17" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="45" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="14.1640625" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="22">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Agent Randomness Parameters</t>
@@ -2251,7 +2098,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" s="22">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Households</t>
@@ -2259,37 +2106,37 @@
       </c>
       <c r="B2" s="9" t="n"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1" s="22">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
         <is>
           <t>household_rand_sentiment_adoption</t>
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="inlineStr">
         <is>
           <t>household_rand_sector_spending_weight_change</t>
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="10" t="inlineStr">
         <is>
           <t>household_rand_emission_sensitivity_change</t>
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
         <is>
           <t>household_rand_job_search</t>
@@ -2298,9 +2145,8 @@
       <c r="B6" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="C6" s="21" t="n"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" s="22">
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Consumer Firms</t>
@@ -2308,27 +2154,27 @@
       </c>
       <c r="B7" s="9" t="n"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1" s="22">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
         <is>
           <t>firm_cons_rand_dividend_change</t>
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="inlineStr">
         <is>
           <t>firm_cons_rand_sentiment_adoption</t>
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="inlineStr">
         <is>
           <t>firm_cons_rand_desired_inventory_factor_change</t>
@@ -2336,35 +2182,33 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>[3.91215461]</t>
-        </is>
-      </c>
-      <c r="C10" s="21" t="n"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" s="22">
+          <t>101,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="10" t="inlineStr">
         <is>
           <t>firm_cons_rand_price_change_upper_limit</t>
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>firm_cons_rand_wage_change</t>
         </is>
       </c>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t>[6.04546836]</t>
-        </is>
-      </c>
-      <c r="C12" s="21" t="n"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" s="22">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>8,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Capital Firms</t>
@@ -2372,27 +2216,27 @@
       </c>
       <c r="B13" s="9" t="n"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1" s="22">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="10" t="inlineStr">
         <is>
           <t>firm_cons_rand_dividend_change</t>
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="10" t="inlineStr">
         <is>
           <t>firm_cap_rand_sentiment_adoption</t>
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="19.5" customHeight="1" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="10" t="inlineStr">
         <is>
           <t>firm_cap_rand_desired_inventory_factor_change</t>
@@ -2400,33 +2244,31 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>[0.11589894]</t>
-        </is>
-      </c>
-      <c r="C16" s="21" t="n"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1" s="22">
+          <t>12,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="10" t="inlineStr">
         <is>
           <t>firm_cap_rand_price_change_upper_limit</t>
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="19.5" customHeight="1" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="inlineStr">
         <is>
           <t>firm_cap_rand_wage_change</t>
         </is>
       </c>
-      <c r="B18" s="12" t="inlineStr">
-        <is>
-          <t>[11.50892903]</t>
-        </is>
-      </c>
-      <c r="C18" s="21" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2442,12 +2284,12 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="27.5" bestFit="1" customWidth="1" style="22" min="1" max="1"/>
+    <col width="27.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="8.5" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
     <col width="8.1640625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="12.33203125" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
@@ -2458,7 +2300,7 @@
     <col width="14.1640625" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="22">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>sector_name</t>
@@ -2474,7 +2316,7 @@
           <t>weighing</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>inv_depr_rate</t>
         </is>
@@ -2505,7 +2347,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" s="22">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>Food &amp; non-alcoholic beverages</t>
@@ -2514,14 +2356,15 @@
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>0.01</v>
+      <c r="C2" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -2536,7 +2379,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" s="22">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>Alcohol &amp; tobacco</t>
@@ -2545,14 +2388,15 @@
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D3" s="12" t="n">
+      <c r="C3" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -2567,7 +2411,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" s="22">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>Clothing &amp; footwear</t>
@@ -2576,14 +2420,15 @@
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D4" s="12" t="n">
+      <c r="C4" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
@@ -2598,7 +2443,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" s="22">
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>Housing &amp; household services</t>
@@ -2607,14 +2452,15 @@
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D5" s="12" t="n">
+      <c r="C5" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -2629,7 +2475,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" s="22">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>Furniture &amp; household goods</t>
@@ -2638,14 +2484,15 @@
       <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D6" s="12" t="n">
+      <c r="C6" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -2660,7 +2507,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" s="22">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>Health</t>
@@ -2669,14 +2516,15 @@
       <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D7" s="12" t="n">
+      <c r="C7" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>1</v>
@@ -2691,7 +2539,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" s="22">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>Transport</t>
@@ -2700,14 +2548,15 @@
       <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D8" s="12" t="n">
+      <c r="C8" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -2722,7 +2571,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" s="22">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>Communication</t>
@@ -2731,14 +2580,15 @@
       <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D9" s="12" t="n">
+      <c r="C9" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1</v>
@@ -2753,7 +2603,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" s="22">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>Recreation &amp; culture</t>
@@ -2762,14 +2612,15 @@
       <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="12" t="n">
+      <c r="C10" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>1</v>
@@ -2784,7 +2635,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" s="22">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>Education</t>
@@ -2793,14 +2644,15 @@
       <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D11" s="12" t="n">
+      <c r="C11" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -2815,7 +2667,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" s="22">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>Restaurants &amp; hotels</t>
@@ -2824,14 +2676,15 @@
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D12" s="12" t="n">
+      <c r="C12" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1</v>
@@ -2846,7 +2699,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" s="22">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
           <t>Miscellaneous goods &amp; services</t>
@@ -2855,14 +2708,15 @@
       <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D13" s="12" t="n">
+      <c r="C13" s="2">
+        <f>1/12</f>
+        <v/>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>

--- a/InitializationData/Simulation_Parameters_main.xlsx
+++ b/InitializationData/Simulation_Parameters_main.xlsx
@@ -790,7 +790,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>449925,35</t>
+          <t>221626,39</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>15789,74</t>
+          <t>40012,61</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>18881,38</t>
+          <t>7189,97</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>9,66</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>4,08</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>31,15</t>
+          <t>31,74</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>3,36</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>37,7</t>
+          <t>31,7</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>23,03</t>
+          <t>7,28</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>16,84</t>
+          <t>140,74</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>40314,88</t>
+          <t>52848,58</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>43,08</t>
+          <t>46,19</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>93,09</t>
+          <t>55,92</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>838,6</t>
+          <t>793,01</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>73,24</t>
+          <t>75,12</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>72,02</t>
+          <t>29,05</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>190,09</t>
+          <t>88,92</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>51,4</t>
+          <t>40,19</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>31,02</t>
+          <t>48,46</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>17,53</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>101,24</t>
+          <t>6,08</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>4,37</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>11,86</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,28</t>
         </is>
       </c>
     </row>

--- a/InitializationData/Simulation_Parameters_main.xlsx
+++ b/InitializationData/Simulation_Parameters_main.xlsx
@@ -790,7 +790,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>221626,39</t>
+          <t>10016,3</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>40012,61</t>
+          <t>24811,52</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>7189,97</t>
+          <t>45102,89</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>32,73</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>31,74</t>
+          <t>27,64</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,31</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>31,7</t>
+          <t>10,92</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>4,4</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>140,74</t>
+          <t>55,03</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>52848,58</t>
+          <t>92871,22</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>46,19</t>
+          <t>96,17</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>55,92</t>
+          <t>71,94</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>793,01</t>
+          <t>953,14</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>75,12</t>
+          <t>72,81</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>29,05</t>
+          <t>83,74</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>88,92</t>
+          <t>87,98</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>40,19</t>
+          <t>29,76</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>48,46</t>
+          <t>50,23</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>17,53</t>
+          <t>22,03</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>132,72</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,92</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>18,44</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>

--- a/InitializationData/Simulation_Parameters_main.xlsx
+++ b/InitializationData/Simulation_Parameters_main.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7820" yWindow="1360" windowWidth="19420" windowHeight="17200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Initialization_Parameters" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,8 +43,14 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +60,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -77,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -123,6 +135,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -492,8 +516,8 @@
   </sheetPr>
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -548,8 +572,10 @@
           <t>household_init_c_f_mean</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0.5</v>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -589,7 +615,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -628,8 +654,10 @@
           <t>household_init_s_optimist_mean</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0.2</v>
+      <c r="B13" s="17" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
@@ -708,8 +736,10 @@
           <t>household_init_wealth_mean</t>
         </is>
       </c>
-      <c r="B21" s="16" t="n">
-        <v>500</v>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>284,41</t>
+        </is>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1">
@@ -748,8 +778,10 @@
           <t>household_init_unemp_tolerance_mean</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>4</v>
+      <c r="B25" s="17" t="inlineStr">
+        <is>
+          <t>65,01</t>
+        </is>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1">
@@ -788,10 +820,8 @@
           <t>household_init_res_wage_mean</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>10016,3</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
@@ -821,7 +851,7 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1">
@@ -830,10 +860,8 @@
           <t>household_init_unemployment_benefit</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>24811,52</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1">
@@ -842,9 +870,9 @@
           <t>household_init_minimum_wage</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>45102,89</t>
+      <c r="B34" s="17" t="inlineStr">
+        <is>
+          <t>544,81</t>
         </is>
       </c>
     </row>
@@ -923,7 +951,7 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1">
@@ -933,7 +961,7 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
@@ -1004,7 +1032,7 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
@@ -1014,7 +1042,7 @@
         </is>
       </c>
       <c r="B51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
@@ -1043,10 +1071,8 @@
           <t>firm_cons_init_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="19.5" customHeight="1">
@@ -1125,10 +1151,8 @@
           <t>firm_cons_init_production_current_ratio</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" ht="19.5" customHeight="1">
@@ -1205,10 +1229,8 @@
           <t>firm_cap_init_dividend_ratio_optimist</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>32,73</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="71" ht="19.5" customHeight="1">
@@ -1228,7 +1250,7 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73" ht="19.5" customHeight="1">
@@ -1348,10 +1370,8 @@
           <t>firm_cap_init_inv_factor_mean</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>27,64</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="19.5" customHeight="1">
@@ -1391,7 +1411,7 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="19.5" customHeight="1">
@@ -1430,10 +1450,8 @@
           <t>firm_cap_init_production_current_ratio</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
+      <c r="B92" s="2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="93" ht="19.5" customHeight="1">
@@ -1442,10 +1460,8 @@
           <t>firm_cap_init_quantity_sold_ratio</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="94" ht="19.5" customHeight="1">
@@ -1547,8 +1563,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1593,8 +1609,10 @@
           <t>n_households</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>2000</v>
+      <c r="B4" s="19" t="inlineStr">
+        <is>
+          <t>1725,0</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
@@ -1603,8 +1621,10 @@
           <t>n_consumer_firms</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>36</v>
+      <c r="B5" s="19" t="inlineStr">
+        <is>
+          <t>127,0</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -1613,8 +1633,10 @@
           <t>n_capital_firms</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>12</v>
+      <c r="B6" s="19" t="inlineStr">
+        <is>
+          <t>75,0</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -1662,8 +1684,10 @@
           <t>household_targeted_savings_to_income_ratio</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>2</v>
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
@@ -1700,10 +1724,8 @@
           <t>firm_cons_inv_depr_rate</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>10,92</t>
-        </is>
+      <c r="B15" s="3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" ht="19.5" customHeight="1">
@@ -1712,10 +1734,8 @@
           <t>firm_cons_productivity</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
+      <c r="B16" s="3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -1724,10 +1744,8 @@
           <t>firm_cons_workers_per_machine</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>55,03</t>
-        </is>
+      <c r="B17" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="19.5" customHeight="1">
@@ -1746,8 +1764,10 @@
           <t>firm_cons_inv_reaction_factor</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
-        <v>1</v>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>8,55</t>
+        </is>
       </c>
     </row>
     <row r="20" ht="19.5" customHeight="1">
@@ -1756,11 +1776,7 @@
           <t>Capital Firm Dynamic Parameters</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>92871,22</t>
-        </is>
-      </c>
+      <c r="B20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" t="inlineStr">
@@ -1768,10 +1784,8 @@
           <t>firm_cap_inv_depr_rate</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>96,17</t>
-        </is>
+      <c r="B21" s="3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" ht="19.5" customHeight="1">
@@ -1780,10 +1794,8 @@
           <t>firm_cap_productivity</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>71,94</t>
-        </is>
+      <c r="B22" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="19.5" customHeight="1">
@@ -1792,10 +1804,8 @@
           <t>firm_cap_workers_per_machine</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1">
@@ -1804,10 +1814,8 @@
           <t>firm_cap_good_unit_cost</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
+      <c r="B24" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1">
@@ -1816,10 +1824,8 @@
           <t>firm_cap_machine_lifespan</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>953,14</t>
-        </is>
+      <c r="B25" s="3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1">
@@ -1846,10 +1852,8 @@
           <t>bank_inflation_reaction</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>72,81</t>
-        </is>
+      <c r="B28" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="19.5" customHeight="1">
@@ -1858,10 +1862,8 @@
           <t>bank_inflation_target</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>83,74</t>
-        </is>
+      <c r="B29" s="3" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
@@ -1890,10 +1892,8 @@
           <t>bank_short_term_loan_length</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>87,98</t>
-        </is>
+      <c r="B32" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1">
@@ -1902,10 +1902,8 @@
           <t>bank_long_term_loan_length</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>29,76</t>
-        </is>
+      <c r="B33" s="3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1">
@@ -1924,10 +1922,8 @@
           <t>bank_leverage_ratio_upper_threshold</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>50,23</t>
-        </is>
+      <c r="B35" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
@@ -1974,10 +1970,8 @@
           <t>bank_total_emission_penalty</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>22,03</t>
-        </is>
+      <c r="B40" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
@@ -2077,7 +2071,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2143,7 +2137,7 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -2152,7 +2146,9 @@
           <t>Consumer Firms</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n"/>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
@@ -2182,7 +2178,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>132,72</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -2192,8 +2188,10 @@
           <t>firm_cons_rand_price_change_upper_limit</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>0.2</v>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
@@ -2202,9 +2200,9 @@
           <t>firm_cons_rand_wage_change</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>4,92</t>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2242,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>18,44</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2253,7 @@
         </is>
       </c>
       <c r="B17" s="9" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
@@ -2266,7 +2264,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2282,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2361,7 +2359,7 @@
         <v/>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>100</v>
